--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_LSPM_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_LSPM_Lineal_No_Estacionario_ARIMA.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.2757924498141188</v>
+        <v>-0.2860218016679856</v>
       </c>
       <c r="D2">
-        <v>0.7827414220003264</v>
+        <v>0.7775373733460067</v>
       </c>
       <c r="E2">
         <v>1.082652362729887</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.7889592454997647</v>
+        <v>0.766301375340139</v>
       </c>
       <c r="D3">
-        <v>0.4302472146677849</v>
+        <v>0.4516416712719507</v>
       </c>
       <c r="E3">
         <v>1.082652362729887</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-0.1483849856110906</v>
+        <v>-0.1847189028023646</v>
       </c>
       <c r="D4">
-        <v>0.8820567668480863</v>
+        <v>0.8551417512401858</v>
       </c>
       <c r="E4">
         <v>1.082652362729887</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-0.001212132073554763</v>
+        <v>-0.001178267201751197</v>
       </c>
       <c r="D5">
-        <v>0.9990330027646432</v>
+        <v>0.9990704981126601</v>
       </c>
       <c r="E5">
         <v>1.082652362729887</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.9234400799655834</v>
+        <v>0.8822070828919951</v>
       </c>
       <c r="D6">
-        <v>0.3559105978308783</v>
+        <v>0.3872027250654795</v>
       </c>
       <c r="E6">
         <v>1.096948669508995</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.1369868800507139</v>
+        <v>0.1494013801071472</v>
       </c>
       <c r="D7">
-        <v>0.8910575893938355</v>
+        <v>0.8825980610306894</v>
       </c>
       <c r="E7">
         <v>1.096948669508995</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>0.270500230614808</v>
+        <v>0.2334529381475392</v>
       </c>
       <c r="D8">
-        <v>0.7868086857850072</v>
+        <v>0.8175682481166846</v>
       </c>
       <c r="E8">
         <v>1.096948669508995</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-0.7308668896982695</v>
+        <v>-0.9191922406697574</v>
       </c>
       <c r="D9">
-        <v>0.4649624374913621</v>
+        <v>0.3679640350462561</v>
       </c>
       <c r="E9">
         <v>1.050252181079008</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.6457934403008679</v>
+        <v>-0.5589123310282735</v>
       </c>
       <c r="D10">
-        <v>0.5185013838927499</v>
+        <v>0.5818667697948272</v>
       </c>
       <c r="E10">
         <v>1.050252181079008</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>0.1487447467378718</v>
+        <v>0.20962497102554</v>
       </c>
       <c r="D11">
-        <v>0.8817729134904497</v>
+        <v>0.8358894500962069</v>
       </c>
       <c r="E11">
         <v>1.090225296881973</v>
